--- a/SceneServer/tools/Xlsx/kx_npc.xlsx
+++ b/SceneServer/tools/Xlsx/kx_npc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14670"/>
+    <workbookView windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -27,21 +27,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-商铺id对应kx_shops中的序号</t>
+          <t>商铺id对应kx_shops中的序号</t>
         </r>
       </text>
     </comment>
@@ -305,7 +295,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,12 +446,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1248,7 +1232,7 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>

--- a/SceneServer/tools/Xlsx/kx_npc.xlsx
+++ b/SceneServer/tools/Xlsx/kx_npc.xlsx
@@ -27,11 +27,21 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>商铺id对应kx_shops中的序号</t>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+商铺id对应kx_shops中的序号</t>
         </r>
       </text>
     </comment>
@@ -295,7 +305,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +456,12 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1232,7 +1248,7 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -1502,7 +1518,7 @@
         <v>34088</v>
       </c>
       <c r="H7" s="1">
-        <v>-6620</v>
+        <v>-6220</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>

--- a/SceneServer/tools/Xlsx/kx_npc.xlsx
+++ b/SceneServer/tools/Xlsx/kx_npc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15255"/>
+    <workbookView windowHeight="14745"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>idx</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>BaoShiNpc</t>
+  </si>
+  <si>
+    <t>天空之城</t>
+  </si>
+  <si>
+    <t>精灵城</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1254,7 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -1920,6 +1926,50 @@
         <v>38</v>
       </c>
     </row>
+    <row r="17" customHeight="1" spans="1:14">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="1">
+        <v>22521</v>
+      </c>
+      <c r="G17" s="1">
+        <v>25644</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-3064</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="1">
+        <v>26</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="114" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:B96">

--- a/SceneServer/tools/Xlsx/kx_npc.xlsx
+++ b/SceneServer/tools/Xlsx/kx_npc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14745"/>
+    <workbookView windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>idx</t>
   </si>
@@ -88,6 +88,12 @@
     <t>shop_id</t>
   </si>
   <si>
+    <t>is_copy</t>
+  </si>
+  <si>
+    <t>copy_name</t>
+  </si>
+  <si>
     <t>table_name</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>array[number]</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -142,6 +151,12 @@
     <t>商铺id</t>
   </si>
   <si>
+    <t>是否副本</t>
+  </si>
+  <si>
+    <t>副本场景名称</t>
+  </si>
+  <si>
     <t>方法所在table</t>
   </si>
   <si>
@@ -299,6 +314,21 @@
   </si>
   <si>
     <t>精灵城</t>
+  </si>
+  <si>
+    <t>副本4指路人</t>
+  </si>
+  <si>
+    <t>迷雾之村</t>
+  </si>
+  <si>
+    <t>迷雾</t>
+  </si>
+  <si>
+    <t>Copy_Map4</t>
+  </si>
+  <si>
+    <t>OnClickMain_1</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -1267,24 +1297,24 @@
     <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="12" width="11.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" style="1" customWidth="1"/>
-    <col min="20" max="23" width="255.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="51.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="54.125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="15.625" style="1"/>
+    <col min="13" max="15" width="22.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="1" customWidth="1"/>
+    <col min="22" max="25" width="255.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="51.375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="54.125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,110 +1357,128 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:14">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:14">
+    <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:14">
+    <row r="5" customHeight="1" spans="1:16">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>22918</v>
@@ -1448,30 +1496,30 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:14">
+    <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="1">
         <v>23012</v>
@@ -1489,33 +1537,33 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:14">
+    <row r="7" customHeight="1" spans="1:16">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>22690</v>
@@ -1533,30 +1581,30 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:14">
+    <row r="8" customHeight="1" spans="1:16">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1">
         <v>23007</v>
@@ -1574,30 +1622,30 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:14">
+    <row r="9" customHeight="1" spans="1:16">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
         <v>22923</v>
@@ -1615,33 +1663,33 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>38</v>
+      <c r="O9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:14">
+    <row r="10" customHeight="1" spans="1:16">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>22933</v>
@@ -1659,33 +1707,33 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:14">
+    <row r="11" customHeight="1" spans="1:16">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>23006</v>
@@ -1703,33 +1751,33 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:14">
+    <row r="12" customHeight="1" spans="1:16">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1">
         <v>22953</v>
@@ -1744,33 +1792,33 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:14">
+    <row r="13" customHeight="1" spans="1:16">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>22994</v>
@@ -1788,33 +1836,33 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:14">
+    <row r="14" customHeight="1" spans="1:16">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>22955</v>
@@ -1829,33 +1877,33 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:14">
+    <row r="15" customHeight="1" spans="1:16">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
         <v>22963</v>
@@ -1873,30 +1921,30 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:14">
+    <row r="16" customHeight="1" spans="1:16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
         <v>22960</v>
@@ -1914,33 +1962,33 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L16" s="1">
         <v>26</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>38</v>
+      <c r="O16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:14">
+    <row r="17" customHeight="1" spans="1:16">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1">
         <v>22521</v>
@@ -1958,19 +2006,66 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L17" s="1">
         <v>26</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>38</v>
+      <c r="O17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="114" ht="14.25"/>
+    <row r="18" customHeight="1" spans="1:16">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1">
+        <v>26467</v>
+      </c>
+      <c r="G18" s="1">
+        <v>25143</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-3998</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114"/>
   </sheetData>
   <autoFilter ref="A1:B96">
     <extLst/>
